--- a/SCBAA/2017/Region 4A.xlsx
+++ b/SCBAA/2017/Region 4A.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\Desktop\FlaskTuts\application\SCBAA\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57698F1-8100-4098-8841-815306E21E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0045A88-2CCD-4AD9-B24E-1E2EB14DB5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="14625" windowHeight="12540" firstSheet="7" activeTab="7" xr2:uid="{6D3151DE-1892-4216-A8D8-4651CE4659B4}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" firstSheet="14" activeTab="17" xr2:uid="{6D3151DE-1892-4216-A8D8-4651CE4659B4}"/>
   </bookViews>
   <sheets>
     <sheet name="Antipolo" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,6 +475,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -566,7 +572,7 @@
     <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -660,6 +666,16 @@
     </xf>
     <xf numFmtId="4" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -11683,8 +11699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AA24687-D90E-46CB-AE6C-E27F660D3A33}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11808,6 +11824,9 @@
       <c r="D11" s="17" t="s">
         <v>56</v>
       </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
@@ -11816,6 +11835,9 @@
       <c r="D12" s="17" t="s">
         <v>55</v>
       </c>
+      <c r="E12" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
@@ -11824,6 +11846,9 @@
       <c r="D13" s="17" t="s">
         <v>54</v>
       </c>
+      <c r="E13" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
@@ -11853,6 +11878,9 @@
       <c r="D16" s="17" t="s">
         <v>51</v>
       </c>
+      <c r="E16" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
@@ -11861,6 +11889,9 @@
       <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
+      <c r="E17" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
@@ -11869,7 +11900,9 @@
       <c r="D18" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="22"/>
+      <c r="E18" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -11879,7 +11912,7 @@
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="13">
-        <f>SUM(E16:E18)</f>
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -11899,6 +11932,9 @@
         <v>46</v>
       </c>
       <c r="D21" s="17"/>
+      <c r="E21" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
@@ -11907,6 +11943,9 @@
         <v>45</v>
       </c>
       <c r="D22" s="17"/>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
@@ -11915,7 +11954,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="17"/>
-      <c r="E23" s="7"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17"/>
@@ -11924,7 +11963,9 @@
       <c r="D24" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="23"/>
+      <c r="E24" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17"/>
@@ -11933,7 +11974,9 @@
       <c r="D25" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17"/>
@@ -11942,7 +11985,9 @@
       <c r="D26" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="22"/>
+      <c r="E26" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17"/>
@@ -11951,7 +11996,9 @@
       <c r="D27" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17"/>
@@ -11969,6 +12016,9 @@
       <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
+      <c r="E29" s="44">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17"/>
@@ -11977,7 +12027,9 @@
       <c r="D30" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="23"/>
+      <c r="E30" s="46">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17"/>
@@ -11986,7 +12038,9 @@
         <v>36</v>
       </c>
       <c r="D31" s="17"/>
-      <c r="E31" s="24"/>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
@@ -12004,7 +12058,9 @@
       <c r="D33" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
@@ -12013,6 +12069,9 @@
       <c r="D34" s="17" t="s">
         <v>33</v>
       </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
@@ -12021,7 +12080,9 @@
       <c r="D35" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
@@ -12030,7 +12091,9 @@
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-      <c r="E36" s="24"/>
+      <c r="E36" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
@@ -12049,7 +12112,7 @@
       <c r="B38" s="19"/>
       <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-      <c r="E38" s="12"/>
+      <c r="E38" s="47"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
@@ -12085,6 +12148,9 @@
       <c r="D42" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="E42" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
@@ -12093,6 +12159,9 @@
       <c r="D43" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="E43" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
@@ -12101,6 +12170,9 @@
       <c r="D44" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="E44" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
@@ -12109,7 +12181,7 @@
       </c>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-      <c r="E45" s="4"/>
+      <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
@@ -12118,6 +12190,9 @@
       <c r="D46" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="E46" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
@@ -12126,6 +12201,9 @@
       <c r="D47" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="E47" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17"/>
@@ -12133,6 +12211,9 @@
       <c r="C48" s="17"/>
       <c r="D48" s="17" t="s">
         <v>2</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12151,6 +12232,9 @@
       <c r="D50" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="E50" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="17"/>
@@ -12159,6 +12243,9 @@
       <c r="D51" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="E51" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17"/>
@@ -12166,6 +12253,9 @@
       <c r="C52" s="17"/>
       <c r="D52" s="17" t="s">
         <v>2</v>
+      </c>
+      <c r="E52" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12184,6 +12274,9 @@
       <c r="D54" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17"/>
@@ -12192,7 +12285,9 @@
       <c r="D55" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17"/>
@@ -12201,7 +12296,9 @@
       <c r="D56" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="28"/>
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17"/>
@@ -12210,7 +12307,7 @@
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-      <c r="E57" s="11"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17"/>
@@ -12219,7 +12316,9 @@
       <c r="D58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="25"/>
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17"/>
@@ -12228,7 +12327,9 @@
       <c r="D59" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="29"/>
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17"/>
@@ -12237,7 +12338,9 @@
       <c r="D60" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17"/>
@@ -12255,6 +12358,9 @@
       <c r="D62" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="E62" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17"/>
@@ -12263,6 +12369,9 @@
       <c r="D63" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="E63" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
@@ -12270,6 +12379,9 @@
       <c r="C64" s="17"/>
       <c r="D64" s="17" t="s">
         <v>2</v>
+      </c>
+      <c r="E64" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12288,6 +12400,9 @@
       <c r="D66" s="17" t="s">
         <v>26</v>
       </c>
+      <c r="E66" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17"/>
@@ -12296,6 +12411,9 @@
       <c r="D67" s="17" t="s">
         <v>25</v>
       </c>
+      <c r="E67" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17"/>
@@ -12303,6 +12421,9 @@
       <c r="C68" s="17"/>
       <c r="D68" s="17" t="s">
         <v>2</v>
+      </c>
+      <c r="E68" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -12321,7 +12442,9 @@
       <c r="D70" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="6"/>
+      <c r="E70" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17"/>
@@ -12330,7 +12453,9 @@
       <c r="D71" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="6"/>
+      <c r="E71" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17"/>
@@ -12339,7 +12464,9 @@
       <c r="D72" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="10"/>
+      <c r="E72" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17"/>
@@ -12366,7 +12493,9 @@
       <c r="D75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="22"/>
+      <c r="E75" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17"/>
@@ -12375,7 +12504,9 @@
       <c r="D76" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="30"/>
+      <c r="E76" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17"/>
@@ -12384,7 +12515,7 @@
         <v>20</v>
       </c>
       <c r="D77" s="17"/>
-      <c r="E77" s="6"/>
+      <c r="E77" s="46"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17"/>
@@ -12393,6 +12524,9 @@
       <c r="D78" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="E78" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17"/>
@@ -12401,7 +12535,9 @@
       <c r="D79" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="22"/>
+      <c r="E79" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17"/>
@@ -12410,7 +12546,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="17"/>
-      <c r="E80" s="7"/>
+      <c r="E80" s="45"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17"/>
@@ -12419,6 +12555,9 @@
       <c r="D81" s="31" t="s">
         <v>14</v>
       </c>
+      <c r="E81" s="5">
+        <v>0</v>
+      </c>
       <c r="F81" s="32"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -12428,6 +12567,9 @@
       <c r="D82" s="31" t="s">
         <v>13</v>
       </c>
+      <c r="E82" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17"/>
@@ -12436,6 +12578,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="17"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17"/>
@@ -12444,7 +12587,9 @@
       <c r="D84" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="9"/>
+      <c r="E84" s="47">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
@@ -12453,7 +12598,9 @@
       <c r="D85" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="9"/>
+      <c r="E85" s="47">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17"/>
@@ -12471,6 +12618,9 @@
       <c r="D87" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="E87" s="47">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17"/>
@@ -12479,6 +12629,9 @@
       <c r="D88" s="17" t="s">
         <v>13</v>
       </c>
+      <c r="E88" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17"/>
@@ -12496,6 +12649,9 @@
       <c r="D90" s="17" t="s">
         <v>15</v>
       </c>
+      <c r="E90" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17"/>
@@ -12504,6 +12660,9 @@
       <c r="D91" s="17" t="s">
         <v>14</v>
       </c>
+      <c r="E91" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="17"/>
@@ -12512,7 +12671,9 @@
       <c r="D92" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="28"/>
+      <c r="E92" s="6">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
@@ -12550,6 +12711,9 @@
       <c r="C96" s="17"/>
       <c r="D96" s="17" t="s">
         <v>2</v>
+      </c>
+      <c r="E96" s="5">
+        <v>0</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="17"/>
@@ -12574,7 +12738,9 @@
       <c r="D98" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="22"/>
+      <c r="E98" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="19" t="s">
@@ -12590,6 +12756,9 @@
       <c r="D100" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="E100" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="19" t="s">
@@ -12605,7 +12774,9 @@
       <c r="D102" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="19" t="s">
@@ -12621,7 +12792,9 @@
       <c r="D104" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="19" t="s">
@@ -12629,6 +12802,7 @@
       </c>
       <c r="C105" s="17"/>
       <c r="D105" s="17"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="17"/>
@@ -12636,7 +12810,9 @@
       <c r="D106" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="4"/>
+      <c r="E106" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="19" t="s">
@@ -12652,6 +12828,9 @@
       <c r="D108" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="E108" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="19"/>
@@ -12668,6 +12847,9 @@
       <c r="D110" s="17" t="s">
         <v>2</v>
       </c>
+      <c r="E110" s="5">
+        <v>0</v>
+      </c>
       <c r="F110" s="34"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -12675,7 +12857,7 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E96,E98,E100,E102,E104,E106,E108,E110)</f>
+        <f>SUM(E95:E110)</f>
         <v>0</v>
       </c>
     </row>
@@ -22219,7 +22401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A3810E7-D38F-4141-A12F-064F19DA9D83}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
